--- a/ipl-2020-21-1210595/royal challengers bangalore vs mumbai indians 10th match 1216547/Bowling1.xlsx
+++ b/ipl-2020-21-1210595/royal challengers bangalore vs mumbai indians 10th match 1216547/Bowling1.xlsx
@@ -522,72 +522,72 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>48</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>12.00</v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Adam Zampa</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>53</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>13.25</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
